--- a/Template/Export/Sari_R13_9.xlsx
+++ b/Template/Export/Sari_R13_9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3281B471-E492-44B8-914E-8C37061997DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B054576C-8C93-4FE1-AA56-869F73883CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>GERENCIA MÉDICA</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>ESTABLECIMIENTO</t>
+  </si>
+  <si>
+    <t>REGION ESTABLECIMIENTO</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -246,9 +249,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -260,6 +260,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -272,13 +273,12 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,37 +618,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R2"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="47.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="23" style="10" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11" style="10"/>
-    <col min="8" max="8" width="15.75" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="10" customWidth="1"/>
-    <col min="10" max="11" width="11" style="10"/>
-    <col min="12" max="12" width="22.125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="16.75" style="10" customWidth="1"/>
-    <col min="14" max="14" width="52" style="12" customWidth="1"/>
-    <col min="15" max="15" width="15.625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="29.625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="12.625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="49.5" style="12" customWidth="1"/>
-    <col min="19" max="19" width="13" style="10" customWidth="1"/>
-    <col min="20" max="20" width="52.25" style="10" customWidth="1"/>
-    <col min="21" max="16384" width="11" style="10"/>
+    <col min="1" max="1" width="28.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="47.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11" style="9"/>
+    <col min="8" max="8" width="15.75" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="9" customWidth="1"/>
+    <col min="10" max="11" width="11" style="9"/>
+    <col min="12" max="12" width="22.125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="16.75" style="9" customWidth="1"/>
+    <col min="14" max="14" width="52" style="11" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="29.625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="49.5" style="11" customWidth="1"/>
+    <col min="19" max="19" width="13" style="9" customWidth="1"/>
+    <col min="20" max="20" width="52.25" style="9" customWidth="1"/>
+    <col min="21" max="21" width="36.375" style="9" customWidth="1"/>
+    <col min="22" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -670,7 +671,7 @@
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:20" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -692,7 +693,7 @@
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
     </row>
-    <row r="3" spans="1:20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
@@ -705,24 +706,25 @@
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
     </row>
-    <row r="4" spans="1:20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -753,7 +755,7 @@
       <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -782,6 +784,9 @@
       </c>
       <c r="T4" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -790,8 +795,8 @@
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="M3:O3"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
